--- a/Project_Management/Sprint4/Burndown chart.xlsx
+++ b/Project_Management/Sprint4/Burndown chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mada\UNI\ANO3\SEM5\ES\projRelated\Sprint4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catarinapedroso/Desktop/projES1/Project_Management/Sprint4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{722D782C-FD62-4A7F-8B58-2E55C38ACBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052A564E-5AFB-B54C-AD51-3D37E6A6DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FFE3EB9-13DC-2D45-A16A-358E8B90BE81}"/>
+    <workbookView xWindow="5420" yWindow="760" windowWidth="24820" windowHeight="17640" xr2:uid="{6FFE3EB9-13DC-2D45-A16A-358E8B90BE81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -438,7 +438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -454,7 +454,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$15</c:f>
+              <c:f>Sheet1!$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -475,7 +475,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet1!$D$5:$K$5</c:f>
+              <c:f>Sheet1!$D$5:$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -564,7 +564,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$16</c:f>
+              <c:f>Sheet1!$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -674,7 +674,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$B$17</c:f>
+              <c:f>Sheet1!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -821,7 +821,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="508437967"/>
@@ -880,7 +880,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="508436319"/>
@@ -922,7 +922,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -959,7 +959,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1926,11 +1926,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D351C654-7C18-9D47-95B6-4EB45BFC9406}">
   <dimension ref="B2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="73.1640625" bestFit="1" customWidth="1"/>
@@ -1938,7 +1938,7 @@
     <col min="5" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
@@ -1952,7 +1952,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1964,7 +1964,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="4" t="s">
@@ -2024,7 +2024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="6">
         <v>1</v>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="6">
         <v>2</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="6">
         <v>3</v>
       </c>
@@ -2100,7 +2100,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>4</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="6">
         <v>5</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>6</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
         <v>7</v>
       </c>
@@ -2198,7 +2198,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>8</v>
       </c>
@@ -2216,7 +2216,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="6">
         <v>9</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>10</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>11</v>
       </c>
@@ -2286,7 +2286,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
         <v>12</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="6">
         <v>13</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
         <v>14</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="6">
         <v>15</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="6">
         <v>16</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="6">
         <v>17</v>
       </c>
@@ -2422,7 +2422,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>18</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="6">
         <v>19</v>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="6">
         <v>20</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="6">
         <v>21</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="6">
         <v>22</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="6">
         <v>23</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="6">
         <v>24</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="6">
         <v>25</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="6">
         <v>26</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="6">
         <v>27</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="6">
         <v>28</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="6">
         <v>29</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="6">
         <v>30</v>
       </c>
@@ -2710,7 +2710,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="17" t="s">
         <v>11</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="18" t="s">
         <v>12</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>5.7999999999999945</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
         <v>13</v>
       </c>
